--- a/data/trans_dic/P55$nadie-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$nadie-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 9,14</t>
+          <t>0,88; 8,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 12,12</t>
+          <t>1,66; 11,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,72</t>
+          <t>0,0; 6,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,66</t>
+          <t>1,31; 7,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 11,27</t>
+          <t>4,08; 11,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,38</t>
+          <t>0,86; 5,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 10,84</t>
+          <t>3,48; 10,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,74</t>
+          <t>2,43; 5,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,93</t>
+          <t>3,53; 9,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,12</t>
+          <t>1,66; 5,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 8,5</t>
+          <t>2,75; 8,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,31</t>
+          <t>2,45; 5,24</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,27</t>
+          <t>0,0; 50,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 16,4</t>
+          <t>2,72; 15,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,17 +895,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,29; 31,28</t>
+          <t>7,41; 31,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 12,04</t>
+          <t>2,16; 12,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,84</t>
+          <t>0,0; 30,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 22,27</t>
+          <t>4,37; 22,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,98</t>
+          <t>3,39; 11,54</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1020,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 32,64</t>
+          <t>4,04; 34,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,04</t>
+          <t>0,0; 42,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,12 +1040,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 29,97</t>
+          <t>3,95; 30,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,89</t>
+          <t>0,0; 24,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 24,97</t>
+          <t>5,8; 24,28</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 11,31</t>
+          <t>2,18; 10,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 10,78</t>
+          <t>1,4; 10,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 5,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,1</t>
+          <t>3,04; 8,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,19</t>
+          <t>3,88; 10,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,68</t>
+          <t>0,77; 4,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,65</t>
+          <t>5,07; 12,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,47</t>
+          <t>3,07; 6,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,15</t>
+          <t>3,85; 9,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,17</t>
+          <t>1,7; 5,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,27</t>
+          <t>4,04; 9,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,35</t>
+          <t>3,59; 6,41</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que no le ayuda nadie cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3733</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6292</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1853</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3133</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14297</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6361</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13536</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9727</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18031</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12653</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15389</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12860</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>910; 8572</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2063; 14601</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6272</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1278; 7535</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8402; 22975</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2153; 13209</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7255; 22451</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6251; 15223</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10897; 28113</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6235; 21890</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8295; 24799</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8705; 18606</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2701</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3269</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8622</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3281</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2701</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8622</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6551</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7164</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1614</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1170; 6837</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2113</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3857; 16156</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1180; 6679</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8342</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2124</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3276; 16832</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3310; 11274</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1716</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3712</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2177</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1154</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1565</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>610; 5253</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4871</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1603</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2067</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>553; 4327</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5049</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1704</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1687; 7067</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6434</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6292</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1853</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8399</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15212</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6361</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22159</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14724</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21647</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>12653</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>24011</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>23123</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2765; 13269</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2039; 14879</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6503</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4729; 13940</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8948; 23910</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2126; 12740</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13564; 33523</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10005; 21397</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13766; 33965</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7203; 23237</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>15700; 37119</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>17316; 30899</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>